--- a/Second.xlsx
+++ b/Second.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>DJK</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DFG</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>DJD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F </t>
+  </si>
+  <si>
+    <t>FDG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DSF</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
@@ -359,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,6 +430,61 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
